--- a/Report 22.6 成型多周期 CPU/59 全部指令集完全版分析.xlsx
+++ b/Report 22.6 成型多周期 CPU/59 全部指令集完全版分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VIVADO_project\Disjunctive.N.F\Report 22.6 成型多周期 CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635E3CA2-6872-44EB-ACC4-CB20933BD3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8586EAAB-429D-491D-BC6C-3C183B815FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="262">
   <si>
     <t>opcode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1062,6 +1062,14 @@
   </si>
   <si>
     <t>write data use rt_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1155,7 +1163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1212,6 +1220,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1500,14 +1511,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI154"/>
+  <dimension ref="A1:BI155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="AD48" sqref="AD48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="16" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1583,10 +1593,10 @@
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1639,19 +1649,19 @@
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
       <c r="L3" s="4">
         <v>0</v>
       </c>
@@ -1677,16 +1687,16 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20" t="s">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
       <c r="N4" s="13" t="s">
         <v>208</v>
       </c>
@@ -1700,15 +1710,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20" t="s">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1722,9 +1732,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="1" t="s">
         <v>163</v>
       </c>
@@ -1750,7 +1760,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="N7" s="4" t="s">
         <v>212</v>
       </c>
@@ -1758,7 +1768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="N8" s="4" t="s">
         <v>213</v>
       </c>
@@ -1766,7 +1776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="N9" s="4" t="s">
         <v>214</v>
       </c>
@@ -1774,7 +1784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="N10" s="4" t="s">
         <v>207</v>
       </c>
@@ -1782,7 +1792,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="N11" s="8" t="s">
         <v>228</v>
       </c>
@@ -1790,7 +1800,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="N12" s="8" t="s">
         <v>229</v>
       </c>
@@ -1798,215 +1808,98 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="14"/>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="14"/>
-      <c r="AK13" s="14"/>
-      <c r="AL13" s="14"/>
-      <c r="AM13" s="14"/>
-      <c r="AN13" s="14"/>
-      <c r="AO13" s="14"/>
-      <c r="AP13" s="14"/>
-      <c r="AQ13" s="14"/>
-      <c r="AR13" s="14"/>
-      <c r="AS13" s="14"/>
-      <c r="AT13" s="14"/>
-      <c r="AU13" s="14"/>
-      <c r="AV13" s="14"/>
-      <c r="AW13" s="14"/>
-      <c r="AX13" s="14"/>
-      <c r="AY13" s="14"/>
-      <c r="AZ13" s="14"/>
-      <c r="BA13" s="14"/>
-      <c r="BB13" s="14"/>
-      <c r="BC13" s="14"/>
-      <c r="BD13" s="14"/>
-      <c r="BE13" s="14"/>
-      <c r="BF13" s="14"/>
-      <c r="BG13" s="14"/>
-      <c r="BH13" s="14"/>
-      <c r="BI13" s="14"/>
+    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="N13" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="18"/>
-      <c r="AG14" s="18"/>
-      <c r="AH14" s="18"/>
-      <c r="AI14" s="18"/>
-      <c r="AJ14" s="18"/>
-      <c r="AK14" s="18"/>
-      <c r="AL14" s="18"/>
-      <c r="AM14" s="18"/>
-      <c r="AN14" s="18"/>
-      <c r="AO14" s="18"/>
-      <c r="AP14" s="18"/>
-      <c r="AQ14" s="18"/>
-      <c r="AR14" s="18"/>
-      <c r="AS14" s="18"/>
-      <c r="AT14" s="18"/>
-      <c r="AU14" s="18"/>
-      <c r="AV14" s="18"/>
-      <c r="AW14" s="18"/>
-      <c r="AX14" s="18"/>
-      <c r="AY14" s="18"/>
-      <c r="AZ14" s="18"/>
-      <c r="BA14" s="18"/>
-      <c r="BB14" s="18"/>
-      <c r="BC14" s="18"/>
-      <c r="BD14" s="18"/>
-      <c r="BE14" s="18"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="14"/>
+      <c r="AS14" s="14"/>
+      <c r="AT14" s="14"/>
+      <c r="AU14" s="14"/>
+      <c r="AV14" s="14"/>
+      <c r="AW14" s="14"/>
+      <c r="AX14" s="14"/>
+      <c r="AY14" s="14"/>
+      <c r="AZ14" s="14"/>
+      <c r="BA14" s="14"/>
+      <c r="BB14" s="14"/>
+      <c r="BC14" s="14"/>
+      <c r="BD14" s="14"/>
+      <c r="BE14" s="14"/>
       <c r="BF14" s="14"/>
       <c r="BG14" s="14"/>
       <c r="BH14" s="14"/>
       <c r="BI14" s="14"/>
     </row>
-    <row r="15" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1" t="s">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="1"/>
+      <c r="N15" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="O15" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q15" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="R15" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="S15" s="5" t="s">
+      <c r="S15" s="5"/>
+      <c r="T15" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="T15" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="U15" s="16" t="s">
+      <c r="U15" s="16"/>
+      <c r="V15" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="V15" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="W15" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="X15" s="16" t="s">
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="Y15" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z15" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AA15" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="AB15" s="5" t="s">
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="AC15" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD15" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AE15" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
       <c r="AF15" s="18"/>
       <c r="AG15" s="18"/>
       <c r="AH15" s="18"/>
@@ -2033,143 +1926,145 @@
       <c r="BC15" s="18"/>
       <c r="BD15" s="18"/>
       <c r="BE15" s="18"/>
-      <c r="BF15" s="19"/>
-      <c r="BG15" s="19"/>
-      <c r="BH15" s="19"/>
-      <c r="BI15" s="19"/>
-    </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BF15" s="14"/>
+      <c r="BG15" s="14"/>
+      <c r="BH15" s="14"/>
+      <c r="BI15" s="14"/>
+    </row>
+    <row r="16" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="S16" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="T16" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="W16" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z16" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA16" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="AB16" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="AC16" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="AD16" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE16" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF16" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="12"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="12"/>
-      <c r="AT16" s="12"/>
-      <c r="AU16" s="12"/>
-      <c r="AV16" s="12"/>
-      <c r="AW16" s="12"/>
-      <c r="AX16" s="12"/>
-      <c r="AY16" s="12"/>
-      <c r="AZ16" s="12"/>
-      <c r="BA16" s="12"/>
-      <c r="BB16" s="12"/>
-      <c r="BC16" s="12"/>
-      <c r="BD16" s="12"/>
-      <c r="BE16" s="12"/>
-      <c r="BF16" s="14"/>
-      <c r="BG16" s="14"/>
-      <c r="BH16" s="14"/>
-      <c r="BI16" s="14"/>
+        <v>182</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="U16" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="V16" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="W16" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="X16" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y16" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z16" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AB16" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC16" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="18"/>
+      <c r="AH16" s="18"/>
+      <c r="AI16" s="18"/>
+      <c r="AJ16" s="18"/>
+      <c r="AK16" s="18"/>
+      <c r="AL16" s="18"/>
+      <c r="AM16" s="18"/>
+      <c r="AN16" s="18"/>
+      <c r="AO16" s="18"/>
+      <c r="AP16" s="18"/>
+      <c r="AQ16" s="18"/>
+      <c r="AR16" s="18"/>
+      <c r="AS16" s="18"/>
+      <c r="AT16" s="18"/>
+      <c r="AU16" s="18"/>
+      <c r="AV16" s="18"/>
+      <c r="AW16" s="18"/>
+      <c r="AX16" s="18"/>
+      <c r="AY16" s="18"/>
+      <c r="AZ16" s="18"/>
+      <c r="BA16" s="18"/>
+      <c r="BB16" s="18"/>
+      <c r="BC16" s="18"/>
+      <c r="BD16" s="18"/>
+      <c r="BE16" s="18"/>
+      <c r="BF16" s="19"/>
+      <c r="BG16" s="19"/>
+      <c r="BH16" s="19"/>
+      <c r="BI16" s="19"/>
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>20</v>
@@ -2181,10 +2076,10 @@
         <v>20</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>197</v>
@@ -2193,16 +2088,16 @@
         <v>244</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>203</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>205</v>
@@ -2211,10 +2106,10 @@
         <v>106</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="S17" s="15" t="s">
         <v>227</v>
@@ -2251,7 +2146,9 @@
       <c r="AE17" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="AF17" s="12"/>
+      <c r="AF17" s="12" t="s">
+        <v>257</v>
+      </c>
       <c r="AG17" s="12"/>
       <c r="AH17" s="12"/>
       <c r="AI17" s="12"/>
@@ -2284,13 +2181,13 @@
     </row>
     <row r="18" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>20</v>
@@ -2302,10 +2199,10 @@
         <v>20</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>197</v>
@@ -2314,28 +2211,28 @@
         <v>244</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="M18" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="M18" s="9" t="s">
         <v>203</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>221</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>106</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>164</v>
+        <v>5</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="S18" s="15" t="s">
         <v>227</v>
@@ -2364,7 +2261,7 @@
         <v>253</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AD18" s="2" t="s">
         <v>205</v>
@@ -2405,13 +2302,13 @@
     </row>
     <row r="19" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>20</v>
@@ -2423,10 +2320,10 @@
         <v>20</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>197</v>
@@ -2435,10 +2332,10 @@
         <v>244</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M19" s="10" t="s">
         <v>203</v>
@@ -2453,10 +2350,10 @@
         <v>106</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="S19" s="15" t="s">
         <v>227</v>
@@ -2479,7 +2376,7 @@
         <v>205</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="AB19" s="6" t="s">
         <v>253</v>
@@ -2488,7 +2385,7 @@
         <v>195</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="AE19" s="2" t="s">
         <v>205</v>
@@ -2526,13 +2423,13 @@
     </row>
     <row r="20" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>20</v>
@@ -2544,10 +2441,10 @@
         <v>20</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>197</v>
@@ -2556,34 +2453,34 @@
         <v>244</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>106</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>164</v>
+        <v>5</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="S20" s="15" t="s">
         <v>227</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>184</v>
+        <v>68</v>
       </c>
       <c r="U20" s="17"/>
       <c r="V20" s="17" t="s">
@@ -2647,10 +2544,10 @@
     </row>
     <row r="21" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>2</v>
@@ -2668,7 +2565,7 @@
         <v>70</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>197</v>
@@ -2689,7 +2586,7 @@
         <v>223</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>106</v>
@@ -2768,10 +2665,10 @@
     </row>
     <row r="22" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>2</v>
@@ -2789,13 +2686,13 @@
         <v>70</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>197</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>198</v>
@@ -2803,12 +2700,14 @@
       <c r="L22" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="M22" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N22" s="2"/>
+      <c r="M22" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="O22" s="2" t="s">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>106</v>
@@ -2887,13 +2786,13 @@
     </row>
     <row r="23" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>20</v>
@@ -2905,10 +2804,10 @@
         <v>20</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>197</v>
@@ -2917,10 +2816,10 @@
         <v>195</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>207</v>
@@ -2933,10 +2832,10 @@
         <v>106</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="S23" s="15" t="s">
         <v>227</v>
@@ -3006,13 +2905,13 @@
     </row>
     <row r="24" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>20</v>
@@ -3024,10 +2923,10 @@
         <v>20</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>197</v>
@@ -3036,26 +2935,26 @@
         <v>195</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>207</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="P24" s="6" t="s">
         <v>106</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>164</v>
+        <v>5</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="S24" s="15" t="s">
         <v>227</v>
@@ -3125,13 +3024,13 @@
     </row>
     <row r="25" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>20</v>
@@ -3143,10 +3042,10 @@
         <v>20</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>197</v>
@@ -3155,26 +3054,26 @@
         <v>195</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>106</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="S25" s="15" t="s">
         <v>227</v>
@@ -3244,13 +3143,13 @@
     </row>
     <row r="26" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>20</v>
@@ -3259,13 +3158,13 @@
         <v>20</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>197</v>
@@ -3274,48 +3173,46 @@
         <v>195</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>225</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2" t="s">
         <v>205</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q26" s="15"/>
+        <v>106</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="R26" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="S26" s="15"/>
+        <v>202</v>
+      </c>
+      <c r="S26" s="15" t="s">
+        <v>227</v>
+      </c>
       <c r="T26" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="U26" s="17" t="s">
-        <v>250</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="U26" s="17"/>
       <c r="V26" s="17" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="W26" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="X26" s="17" t="s">
-        <v>226</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="X26" s="17"/>
       <c r="Y26" s="17" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="Z26" s="17" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="AA26" s="6" t="s">
         <v>107</v>
@@ -3365,10 +3262,10 @@
     </row>
     <row r="27" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>2</v>
@@ -3386,7 +3283,7 @@
         <v>70</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>197</v>
@@ -3407,7 +3304,7 @@
         <v>225</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>205</v>
@@ -3430,7 +3327,7 @@
         <v>106</v>
       </c>
       <c r="X27" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Y27" s="17" t="s">
         <v>244</v>
@@ -3486,13 +3383,13 @@
     </row>
     <row r="28" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>219</v>
+        <v>2</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>20</v>
@@ -3501,13 +3398,13 @@
         <v>20</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>70</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>197</v>
@@ -3522,42 +3419,42 @@
         <v>244</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="P28" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S28" s="15"/>
+      <c r="T28" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="U28" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="V28" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="W28" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="Q28" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="R28" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="S28" s="15" t="s">
+      <c r="X28" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="T28" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="W28" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="X28" s="17"/>
       <c r="Y28" s="17" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="Z28" s="17" t="s">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="AA28" s="6" t="s">
         <v>107</v>
@@ -3607,13 +3504,13 @@
     </row>
     <row r="29" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>218</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>2</v>
+        <v>219</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>20</v>
@@ -3622,13 +3519,13 @@
         <v>20</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>70</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>197</v>
@@ -3652,33 +3549,33 @@
         <v>205</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q29" s="15"/>
+        <v>106</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>164</v>
+      </c>
       <c r="R29" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="S29" s="15"/>
+        <v>196</v>
+      </c>
+      <c r="S29" s="15" t="s">
+        <v>227</v>
+      </c>
       <c r="T29" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="U29" s="17" t="s">
-        <v>250</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="U29" s="17"/>
       <c r="V29" s="17" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="W29" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="X29" s="17" t="s">
-        <v>227</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="X29" s="17"/>
       <c r="Y29" s="17" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="Z29" s="17" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="AA29" s="6" t="s">
         <v>107</v>
@@ -3728,10 +3625,10 @@
     </row>
     <row r="30" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>119</v>
+        <v>216</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>2</v>
@@ -3749,7 +3646,7 @@
         <v>70</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>197</v>
@@ -3770,7 +3667,7 @@
         <v>224</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="P30" s="6" t="s">
         <v>205</v>
@@ -3849,10 +3746,10 @@
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>2</v>
@@ -3864,13 +3761,13 @@
         <v>20</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>70</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>197</v>
@@ -3884,41 +3781,43 @@
       <c r="L31" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="M31" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="N31" s="2"/>
+      <c r="M31" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="O31" s="2" t="s">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="P31" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S31" s="15"/>
+      <c r="T31" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="U31" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="V31" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="W31" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="Q31" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="R31" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="S31" s="15" t="s">
+      <c r="X31" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="T31" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="W31" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="X31" s="17"/>
       <c r="Y31" s="17" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="Z31" s="17" t="s">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="AA31" s="6" t="s">
         <v>107</v>
@@ -3968,13 +3867,13 @@
     </row>
     <row r="32" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>20</v>
@@ -3986,10 +3885,10 @@
         <v>20</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>197</v>
@@ -3998,10 +3897,10 @@
         <v>195</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>210</v>
@@ -4014,10 +3913,10 @@
         <v>106</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="S32" s="15" t="s">
         <v>227</v>
@@ -4087,16 +3986,16 @@
     </row>
     <row r="33" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>20</v>
@@ -4110,18 +4009,22 @@
       <c r="H33" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="2"/>
+      <c r="I33" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="J33" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="K33" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="L33" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2" t="s">
-        <v>205</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2" t="s">
         <v>205</v>
       </c>
@@ -4135,10 +4038,10 @@
         <v>202</v>
       </c>
       <c r="S33" s="15" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="T33" s="6" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="U33" s="17"/>
       <c r="V33" s="17" t="s">
@@ -4202,16 +4105,16 @@
     </row>
     <row r="34" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>20</v>
@@ -4220,44 +4123,40 @@
         <v>20</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>197</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I34" s="2"/>
       <c r="J34" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>198</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="K34" s="2"/>
       <c r="L34" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="O34" s="2" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="P34" s="6" t="s">
         <v>106</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>164</v>
+        <v>5</v>
       </c>
       <c r="R34" s="6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="S34" s="15" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="T34" s="6" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="U34" s="17"/>
       <c r="V34" s="17" t="s">
@@ -4321,10 +4220,10 @@
     </row>
     <row r="35" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>2</v>
@@ -4342,7 +4241,7 @@
         <v>70</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>197</v>
@@ -4357,11 +4256,11 @@
         <v>244</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="P35" s="6" t="s">
         <v>106</v>
@@ -4440,13 +4339,13 @@
     </row>
     <row r="36" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>20</v>
@@ -4458,10 +4357,10 @@
         <v>20</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>197</v>
@@ -4470,10 +4369,10 @@
         <v>195</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>211</v>
@@ -4486,10 +4385,10 @@
         <v>106</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="S36" s="15" t="s">
         <v>227</v>
@@ -4559,13 +4458,13 @@
     </row>
     <row r="37" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>20</v>
@@ -4577,10 +4476,10 @@
         <v>20</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>197</v>
@@ -4589,13 +4488,13 @@
         <v>195</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2" t="s">
@@ -4605,10 +4504,10 @@
         <v>106</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>164</v>
+        <v>5</v>
       </c>
       <c r="R37" s="6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="S37" s="15" t="s">
         <v>227</v>
@@ -4678,13 +4577,13 @@
     </row>
     <row r="38" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>20</v>
@@ -4696,10 +4595,10 @@
         <v>20</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>197</v>
@@ -4708,10 +4607,10 @@
         <v>195</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>212</v>
@@ -4724,10 +4623,10 @@
         <v>106</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
       <c r="R38" s="6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="S38" s="15" t="s">
         <v>227</v>
@@ -4797,16 +4696,16 @@
     </row>
     <row r="39" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>20</v>
@@ -4818,22 +4717,22 @@
         <v>20</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>167</v>
+        <v>20</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2" t="s">
@@ -4843,10 +4742,10 @@
         <v>106</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>164</v>
+        <v>5</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="S39" s="15" t="s">
         <v>227</v>
@@ -4916,10 +4815,10 @@
     </row>
     <row r="40" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>2</v>
@@ -4937,7 +4836,7 @@
         <v>20</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>167</v>
@@ -4952,7 +4851,7 @@
         <v>244</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2" t="s">
@@ -5035,10 +4934,10 @@
     </row>
     <row r="41" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>2</v>
@@ -5056,7 +4955,7 @@
         <v>20</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>167</v>
@@ -5075,7 +4974,7 @@
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="P41" s="6" t="s">
         <v>106</v>
@@ -5154,16 +5053,16 @@
     </row>
     <row r="42" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>20</v>
@@ -5172,16 +5071,16 @@
         <v>20</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>197</v>
+        <v>11</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>198</v>
@@ -5190,11 +5089,11 @@
         <v>244</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2" t="s">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="P42" s="6" t="s">
         <v>106</v>
@@ -5273,10 +5172,10 @@
     </row>
     <row r="43" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>2</v>
@@ -5294,7 +5193,7 @@
         <v>70</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>197</v>
@@ -5309,7 +5208,7 @@
         <v>244</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2" t="s">
@@ -5392,10 +5291,10 @@
     </row>
     <row r="44" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>2</v>
@@ -5413,7 +5312,7 @@
         <v>70</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>197</v>
@@ -5432,7 +5331,7 @@
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="P44" s="6" t="s">
         <v>106</v>
@@ -5511,13 +5410,13 @@
     </row>
     <row r="45" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>20</v>
@@ -5529,10 +5428,10 @@
         <v>20</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>197</v>
@@ -5546,23 +5445,27 @@
       <c r="L45" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="M45" s="9" t="s">
-        <v>228</v>
+      <c r="M45" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2" t="s">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q45" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>164</v>
+      </c>
       <c r="R45" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="S45" s="6"/>
+        <v>196</v>
+      </c>
+      <c r="S45" s="15" t="s">
+        <v>227</v>
+      </c>
       <c r="T45" s="6" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="U45" s="17"/>
       <c r="V45" s="17" t="s">
@@ -5579,7 +5482,7 @@
         <v>205</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>242</v>
+        <v>107</v>
       </c>
       <c r="AB45" s="6" t="s">
         <v>253</v>
@@ -5626,13 +5529,13 @@
     </row>
     <row r="46" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>20</v>
@@ -5662,11 +5565,11 @@
         <v>244</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="P46" s="6" t="s">
         <v>205</v>
@@ -5741,19 +5644,19 @@
     </row>
     <row r="47" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>20</v>
@@ -5776,8 +5679,8 @@
       <c r="L47" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="M47" s="2" t="s">
-        <v>234</v>
+      <c r="M47" s="9" t="s">
+        <v>233</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2" t="s">
@@ -5856,10 +5759,10 @@
     </row>
     <row r="48" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>67</v>
@@ -5868,7 +5771,7 @@
         <v>20</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>20</v>
@@ -5886,17 +5789,17 @@
         <v>195</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="P48" s="6" t="s">
         <v>205</v>
@@ -5971,13 +5874,13 @@
     </row>
     <row r="49" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>20</v>
@@ -6007,7 +5910,7 @@
         <v>240</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2" t="s">
@@ -6086,13 +5989,13 @@
     </row>
     <row r="50" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>20</v>
@@ -6122,11 +6025,11 @@
         <v>240</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="P50" s="6" t="s">
         <v>205</v>
@@ -6201,19 +6104,19 @@
     </row>
     <row r="51" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>20</v>
@@ -6237,26 +6140,22 @@
         <v>240</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2" t="s">
         <v>231</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q51" s="15" t="s">
-        <v>199</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="Q51" s="6"/>
       <c r="R51" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="S51" s="15" t="s">
-        <v>194</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="S51" s="6"/>
       <c r="T51" s="6" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="U51" s="17"/>
       <c r="V51" s="17" t="s">
@@ -6320,10 +6219,10 @@
     </row>
     <row r="52" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>67</v>
@@ -6332,7 +6231,7 @@
         <v>20</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>20</v>
@@ -6356,11 +6255,11 @@
         <v>240</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="P52" s="6" t="s">
         <v>106</v>
@@ -6439,19 +6338,19 @@
     </row>
     <row r="53" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>20</v>
@@ -6462,31 +6361,39 @@
       <c r="H53" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I53" s="2"/>
+      <c r="I53" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="J53" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="K53" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="L53" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2" t="s">
-        <v>205</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2" t="s">
         <v>205</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q53" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="Q53" s="15" t="s">
+        <v>199</v>
+      </c>
       <c r="R53" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="S53" s="6"/>
+        <v>240</v>
+      </c>
+      <c r="S53" s="15" t="s">
+        <v>194</v>
+      </c>
       <c r="T53" s="6" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="U53" s="17"/>
       <c r="V53" s="17" t="s">
@@ -6503,13 +6410,13 @@
         <v>205</v>
       </c>
       <c r="AA53" s="6" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="AB53" s="6" t="s">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c r="AC53" s="6" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="AD53" s="2" t="s">
         <v>107</v>
@@ -6550,13 +6457,13 @@
     </row>
     <row r="54" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>20</v>
@@ -6589,19 +6496,15 @@
         <v>205</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q54" s="15" t="s">
-        <v>199</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="Q54" s="6"/>
       <c r="R54" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="S54" s="15" t="s">
-        <v>194</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="S54" s="6"/>
       <c r="T54" s="6" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="U54" s="17"/>
       <c r="V54" s="17" t="s">
@@ -6665,28 +6568,28 @@
     </row>
     <row r="55" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2" t="s">
@@ -6704,15 +6607,19 @@
         <v>205</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q55" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="Q55" s="15" t="s">
+        <v>199</v>
+      </c>
       <c r="R55" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="S55" s="6"/>
+        <v>240</v>
+      </c>
+      <c r="S55" s="15" t="s">
+        <v>194</v>
+      </c>
       <c r="T55" s="6" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="U55" s="17"/>
       <c r="V55" s="17" t="s">
@@ -6732,10 +6639,10 @@
         <v>205</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AD55" s="2" t="s">
         <v>107</v>
@@ -6776,10 +6683,10 @@
     </row>
     <row r="56" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>2</v>
@@ -6791,13 +6698,13 @@
         <v>70</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>70</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2" t="s">
@@ -6815,19 +6722,15 @@
         <v>205</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q56" s="15" t="s">
-        <v>199</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="Q56" s="6"/>
       <c r="R56" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="S56" s="15" t="s">
-        <v>194</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="S56" s="6"/>
       <c r="T56" s="6" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="U56" s="17"/>
       <c r="V56" s="17" t="s">
@@ -6891,16 +6794,16 @@
     </row>
     <row r="57" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>70</v>
@@ -6912,7 +6815,7 @@
         <v>70</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2" t="s">
@@ -6932,17 +6835,17 @@
       <c r="P57" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="Q57" s="6" t="s">
-        <v>164</v>
+      <c r="Q57" s="15" t="s">
+        <v>199</v>
       </c>
       <c r="R57" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="S57" s="6" t="s">
-        <v>200</v>
+        <v>240</v>
+      </c>
+      <c r="S57" s="15" t="s">
+        <v>194</v>
       </c>
       <c r="T57" s="6" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="U57" s="17"/>
       <c r="V57" s="17" t="s">
@@ -6959,13 +6862,13 @@
         <v>205</v>
       </c>
       <c r="AA57" s="6" t="s">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="AB57" s="6" t="s">
-        <v>253</v>
+        <v>197</v>
       </c>
       <c r="AC57" s="6" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="AD57" s="2" t="s">
         <v>107</v>
@@ -7006,10 +6909,10 @@
     </row>
     <row r="58" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>2</v>
@@ -7024,10 +6927,10 @@
         <v>20</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>184</v>
+        <v>70</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2" t="s">
@@ -7054,10 +6957,10 @@
         <v>196</v>
       </c>
       <c r="S58" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T58" s="6" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="U58" s="17"/>
       <c r="V58" s="17" t="s">
@@ -7121,28 +7024,28 @@
     </row>
     <row r="59" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>70</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2" t="s">
@@ -7160,24 +7063,26 @@
         <v>205</v>
       </c>
       <c r="P59" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q59" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="Q59" s="6" t="s">
+        <v>164</v>
+      </c>
       <c r="R59" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="S59" s="6"/>
+        <v>196</v>
+      </c>
+      <c r="S59" s="6" t="s">
+        <v>201</v>
+      </c>
       <c r="T59" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="U59" s="17" t="s">
-        <v>197</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="U59" s="17"/>
       <c r="V59" s="17" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="W59" s="17" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="X59" s="17"/>
       <c r="Y59" s="17" t="s">
@@ -7234,10 +7139,10 @@
     </row>
     <row r="60" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>2</v>
@@ -7255,7 +7160,7 @@
         <v>70</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2" t="s">
@@ -7283,21 +7188,21 @@
       <c r="T60" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="U60" s="17"/>
+      <c r="U60" s="17" t="s">
+        <v>197</v>
+      </c>
       <c r="V60" s="17" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="W60" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="X60" s="17" t="s">
-        <v>197</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="X60" s="17"/>
       <c r="Y60" s="17" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="Z60" s="17" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="AA60" s="6" t="s">
         <v>107</v>
@@ -7347,10 +7252,10 @@
     </row>
     <row r="61" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>2</v>
@@ -7359,16 +7264,16 @@
         <v>20</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2" t="s">
@@ -7383,7 +7288,7 @@
         <v>205</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="P61" s="6" t="s">
         <v>205</v>
@@ -7403,21 +7308,23 @@
       <c r="W61" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="X61" s="17"/>
+      <c r="X61" s="17" t="s">
+        <v>197</v>
+      </c>
       <c r="Y61" s="17" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="Z61" s="17" t="s">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="AA61" s="6" t="s">
         <v>107</v>
       </c>
       <c r="AB61" s="6" t="s">
-        <v>3</v>
+        <v>253</v>
       </c>
       <c r="AC61" s="6" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="AD61" s="2" t="s">
         <v>107</v>
@@ -7458,10 +7365,10 @@
     </row>
     <row r="62" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>2</v>
@@ -7479,7 +7386,7 @@
         <v>20</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2" t="s">
@@ -7525,10 +7432,10 @@
         <v>107</v>
       </c>
       <c r="AB62" s="6" t="s">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="AC62" s="6" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="AD62" s="2" t="s">
         <v>107</v>
@@ -7569,13 +7476,13 @@
     </row>
     <row r="63" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>20</v>
@@ -7590,57 +7497,47 @@
         <v>20</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>197</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I63" s="2"/>
       <c r="J63" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>183</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="K63" s="2"/>
       <c r="L63" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="M63" s="9" t="s">
-        <v>203</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>205</v>
+        <v>107</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q63" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="Q63" s="6"/>
       <c r="R63" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="S63" s="6" t="s">
-        <v>256</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="S63" s="6"/>
       <c r="T63" s="6" t="s">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="U63" s="17"/>
       <c r="V63" s="17" t="s">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="W63" s="17" t="s">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="X63" s="17"/>
       <c r="Y63" s="17" t="s">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="Z63" s="17" t="s">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="AA63" s="6" t="s">
         <v>107</v>
@@ -7652,10 +7549,10 @@
         <v>195</v>
       </c>
       <c r="AD63" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AE63" s="2" t="s">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="AF63" s="12"/>
       <c r="AG63" s="12"/>
@@ -7690,13 +7587,13 @@
     </row>
     <row r="64" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>20</v>
@@ -7729,7 +7626,7 @@
         <v>203</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O64" s="2" t="s">
         <v>205</v>
@@ -7811,13 +7708,13 @@
     </row>
     <row r="65" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>20</v>
@@ -7844,7 +7741,7 @@
         <v>183</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>116</v>
+        <v>245</v>
       </c>
       <c r="M65" s="9" t="s">
         <v>203</v>
@@ -7853,7 +7750,7 @@
         <v>221</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="P65" s="6" t="s">
         <v>106</v>
@@ -7932,13 +7829,13 @@
     </row>
     <row r="66" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>20</v>
@@ -8053,13 +7950,13 @@
     </row>
     <row r="67" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>20</v>
@@ -8139,7 +8036,7 @@
         <v>106</v>
       </c>
       <c r="AE67" s="2" t="s">
-        <v>205</v>
+        <v>107</v>
       </c>
       <c r="AF67" s="12"/>
       <c r="AG67" s="12"/>
@@ -8174,13 +8071,13 @@
     </row>
     <row r="68" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>20</v>
@@ -8219,15 +8116,19 @@
         <v>107</v>
       </c>
       <c r="P68" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q68" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="Q68" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="R68" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="S68" s="6"/>
+        <v>202</v>
+      </c>
+      <c r="S68" s="6" t="s">
+        <v>256</v>
+      </c>
       <c r="T68" s="6" t="s">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="U68" s="17"/>
       <c r="V68" s="17" t="s">
@@ -8256,7 +8157,7 @@
         <v>106</v>
       </c>
       <c r="AE68" s="2" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="AF68" s="12"/>
       <c r="AG68" s="12"/>
@@ -8291,13 +8192,13 @@
     </row>
     <row r="69" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>20</v>
@@ -8408,13 +8309,13 @@
     </row>
     <row r="70" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>20</v>
@@ -8525,41 +8426,61 @@
     </row>
     <row r="71" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P71" s="6" t="s">
+        <v>205</v>
+      </c>
       <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
+      <c r="R71" s="6" t="s">
+        <v>205</v>
+      </c>
       <c r="S71" s="6"/>
-      <c r="T71" s="6"/>
+      <c r="T71" s="6" t="s">
+        <v>205</v>
+      </c>
       <c r="U71" s="17"/>
       <c r="V71" s="17" t="s">
         <v>107</v>
@@ -8584,10 +8505,10 @@
         <v>195</v>
       </c>
       <c r="AD71" s="2" t="s">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="AE71" s="2" t="s">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="AF71" s="12"/>
       <c r="AG71" s="12"/>
@@ -8622,28 +8543,28 @@
     </row>
     <row r="72" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>82</v>
       </c>
       <c r="D72" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E72" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E72" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="F72" s="6" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>70</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
@@ -8719,16 +8640,16 @@
     </row>
     <row r="73" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>82</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>166</v>
+        <v>70</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>20</v>
@@ -8816,55 +8737,41 @@
     </row>
     <row r="74" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>70</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>2</v>
+        <v>185</v>
       </c>
       <c r="I74" s="2"/>
-      <c r="J74" s="2" t="s">
-        <v>205</v>
-      </c>
+      <c r="J74" s="2"/>
       <c r="K74" s="2"/>
-      <c r="L74" s="2" t="s">
-        <v>205</v>
-      </c>
+      <c r="L74" s="2"/>
       <c r="M74" s="2"/>
-      <c r="N74" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="O74" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="P74" s="6" t="s">
-        <v>205</v>
-      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
-      <c r="R74" s="6" t="s">
-        <v>205</v>
-      </c>
+      <c r="R74" s="6"/>
       <c r="S74" s="6"/>
-      <c r="T74" s="6" t="s">
-        <v>205</v>
-      </c>
+      <c r="T74" s="6"/>
       <c r="U74" s="17"/>
       <c r="V74" s="17" t="s">
         <v>107</v>
@@ -8926,37 +8833,85 @@
       <c r="BI74" s="14"/>
     </row>
     <row r="75" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A75" s="18"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
-      <c r="P75" s="12"/>
-      <c r="Q75" s="12"/>
-      <c r="R75" s="12"/>
-      <c r="S75" s="12"/>
-      <c r="T75" s="12"/>
-      <c r="U75" s="12"/>
-      <c r="V75" s="12"/>
-      <c r="W75" s="12"/>
-      <c r="X75" s="12"/>
-      <c r="Y75" s="12"/>
-      <c r="Z75" s="12"/>
-      <c r="AA75" s="12"/>
-      <c r="AB75" s="12"/>
-      <c r="AC75" s="12"/>
-      <c r="AD75" s="12"/>
-      <c r="AE75" s="12"/>
+      <c r="A75" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="P75" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="U75" s="17"/>
+      <c r="V75" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="W75" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="X75" s="17"/>
+      <c r="Y75" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z75" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA75" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB75" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC75" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD75" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE75" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="AF75" s="12"/>
       <c r="AG75" s="12"/>
       <c r="AH75" s="12"/>
@@ -9081,9 +9036,7 @@
       <c r="AA77" s="12"/>
       <c r="AB77" s="12"/>
       <c r="AC77" s="12"/>
-      <c r="AD77" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="AD77" s="12"/>
       <c r="AE77" s="12"/>
       <c r="AF77" s="12"/>
       <c r="AG77" s="12"/>
@@ -9131,53 +9084,31 @@
       <c r="L78" s="12"/>
       <c r="M78" s="12"/>
       <c r="N78" s="12"/>
-      <c r="O78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P78" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q78" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R78" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S78" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V78" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="W78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X78" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y78" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z78" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA78" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
+      <c r="S78" s="12"/>
+      <c r="T78" s="12"/>
+      <c r="U78" s="12"/>
+      <c r="V78" s="12"/>
+      <c r="W78" s="12"/>
+      <c r="X78" s="12"/>
+      <c r="Y78" s="12"/>
+      <c r="Z78" s="12"/>
+      <c r="AA78" s="12"/>
       <c r="AB78" s="12"/>
       <c r="AC78" s="12"/>
       <c r="AD78" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE78" s="12"/>
-      <c r="AF78" s="12"/>
-      <c r="AG78" s="12"/>
+      <c r="AF78" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG78" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="AH78" s="12"/>
       <c r="AI78" s="12"/>
       <c r="AJ78" s="12"/>
@@ -9223,52 +9154,56 @@
       <c r="M79" s="12"/>
       <c r="N79" s="12"/>
       <c r="O79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V79" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X79" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P79" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q79" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R79" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S79" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T79" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U79" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V79" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="W79" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="X79" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Y79" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z79" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA79" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB79" s="12"/>
       <c r="AC79" s="12"/>
       <c r="AD79" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AE79" s="12"/>
-      <c r="AF79" s="12"/>
-      <c r="AG79" s="12"/>
+      <c r="AF79" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG79" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="AH79" s="12"/>
       <c r="AI79" s="12"/>
       <c r="AJ79" s="12"/>
@@ -9314,50 +9249,56 @@
       <c r="M80" s="12"/>
       <c r="N80" s="12"/>
       <c r="O80" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T80" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U80" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V80" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W80" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P80" s="12"/>
-      <c r="Q80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R80" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S80" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T80" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U80" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V80" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="W80" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="X80" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Y80" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Z80" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA80" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AB80" s="12"/>
       <c r="AC80" s="12"/>
       <c r="AD80" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE80" s="12"/>
-      <c r="AF80" s="12"/>
-      <c r="AG80" s="12"/>
+      <c r="AF80" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG80" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="AH80" s="12"/>
       <c r="AI80" s="12"/>
       <c r="AJ80" s="12"/>
@@ -9394,12 +9335,8 @@
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
-      <c r="G81" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
       <c r="I81" s="12"/>
       <c r="J81" s="12"/>
       <c r="K81" s="12"/>
@@ -9407,50 +9344,54 @@
       <c r="M81" s="12"/>
       <c r="N81" s="12"/>
       <c r="O81" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P81" s="12"/>
       <c r="Q81" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T81" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U81" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V81" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W81" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X81" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y81" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z81" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA81" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AB81" s="12"/>
       <c r="AC81" s="12"/>
       <c r="AD81" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE81" s="12"/>
-      <c r="AF81" s="12"/>
-      <c r="AG81" s="12"/>
+      <c r="AF81" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG81" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="AH81" s="12"/>
       <c r="AI81" s="12"/>
       <c r="AJ81" s="12"/>
@@ -9488,10 +9429,10 @@
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
       <c r="G82" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
@@ -9500,45 +9441,51 @@
       <c r="M82" s="12"/>
       <c r="N82" s="12"/>
       <c r="O82" s="1" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="P82" s="12"/>
-      <c r="Q82" s="12"/>
+      <c r="Q82" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="R82" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="S82" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="W82" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X82" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T82" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U82" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V82" s="12"/>
-      <c r="W82" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X82" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="Y82" s="1" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="Z82" s="1" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AA82" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AB82" s="12"/>
       <c r="AC82" s="12"/>
       <c r="AD82" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AE82" s="12"/>
-      <c r="AF82" s="12"/>
+      <c r="AF82" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="AG82" s="12"/>
       <c r="AH82" s="12"/>
       <c r="AI82" s="12"/>
@@ -9577,10 +9524,10 @@
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
       <c r="G83" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I83" s="12"/>
       <c r="J83" s="12"/>
@@ -9589,41 +9536,47 @@
       <c r="M83" s="12"/>
       <c r="N83" s="12"/>
       <c r="O83" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P83" s="12"/>
       <c r="Q83" s="12"/>
       <c r="R83" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V83" s="12"/>
       <c r="W83" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y83" s="12"/>
-      <c r="Z83" s="12"/>
+        <v>49</v>
+      </c>
+      <c r="Y83" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z83" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="AA83" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB83" s="12"/>
       <c r="AC83" s="12"/>
       <c r="AD83" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE83" s="12"/>
-      <c r="AF83" s="12"/>
+      <c r="AF83" s="20" t="s">
+        <v>36</v>
+      </c>
       <c r="AG83" s="12"/>
       <c r="AH83" s="12"/>
       <c r="AI83" s="12"/>
@@ -9662,10 +9615,10 @@
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
       <c r="G84" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
@@ -9674,41 +9627,43 @@
       <c r="M84" s="12"/>
       <c r="N84" s="12"/>
       <c r="O84" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P84" s="12"/>
       <c r="Q84" s="12"/>
       <c r="R84" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V84" s="12"/>
       <c r="W84" s="1" t="s">
-        <v>218</v>
+        <v>39</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Y84" s="12"/>
       <c r="Z84" s="12"/>
       <c r="AA84" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB84" s="12"/>
       <c r="AC84" s="12"/>
       <c r="AD84" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AE84" s="12"/>
-      <c r="AF84" s="12"/>
+      <c r="AF84" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="AG84" s="12"/>
       <c r="AH84" s="12"/>
       <c r="AI84" s="12"/>
@@ -9747,10 +9702,10 @@
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
       <c r="G85" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I85" s="12"/>
       <c r="J85" s="12"/>
@@ -9759,41 +9714,43 @@
       <c r="M85" s="12"/>
       <c r="N85" s="12"/>
       <c r="O85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P85" s="12"/>
       <c r="Q85" s="12"/>
       <c r="R85" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V85" s="12"/>
       <c r="W85" s="1" t="s">
-        <v>47</v>
+        <v>218</v>
       </c>
       <c r="X85" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Y85" s="12"/>
       <c r="Z85" s="12"/>
       <c r="AA85" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AB85" s="12"/>
       <c r="AC85" s="12"/>
       <c r="AD85" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE85" s="12"/>
-      <c r="AF85" s="12"/>
+      <c r="AF85" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="AG85" s="12"/>
       <c r="AH85" s="12"/>
       <c r="AI85" s="12"/>
@@ -9832,10 +9789,10 @@
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
       <c r="G86" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
@@ -9844,37 +9801,43 @@
       <c r="M86" s="12"/>
       <c r="N86" s="12"/>
       <c r="O86" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P86" s="12"/>
       <c r="Q86" s="12"/>
-      <c r="R86" s="12"/>
+      <c r="R86" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="S86" s="1" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U86" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V86" s="12"/>
       <c r="W86" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="X86" s="1" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="Y86" s="12"/>
       <c r="Z86" s="12"/>
-      <c r="AA86" s="12"/>
+      <c r="AA86" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="AB86" s="12"/>
       <c r="AC86" s="12"/>
       <c r="AD86" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AE86" s="12"/>
-      <c r="AF86" s="12"/>
+      <c r="AF86" s="20" t="s">
+        <v>39</v>
+      </c>
       <c r="AG86" s="12"/>
       <c r="AH86" s="12"/>
       <c r="AI86" s="12"/>
@@ -9913,10 +9876,10 @@
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
       <c r="G87" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I87" s="12"/>
       <c r="J87" s="12"/>
@@ -9925,26 +9888,26 @@
       <c r="M87" s="12"/>
       <c r="N87" s="12"/>
       <c r="O87" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P87" s="12"/>
       <c r="Q87" s="12"/>
       <c r="R87" s="12"/>
       <c r="S87" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="T87" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U87" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V87" s="12"/>
       <c r="W87" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="X87" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Y87" s="12"/>
       <c r="Z87" s="12"/>
@@ -9952,10 +9915,12 @@
       <c r="AB87" s="12"/>
       <c r="AC87" s="12"/>
       <c r="AD87" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AE87" s="12"/>
-      <c r="AF87" s="12"/>
+      <c r="AF87" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="AG87" s="12"/>
       <c r="AH87" s="12"/>
       <c r="AI87" s="12"/>
@@ -9994,10 +9959,10 @@
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
       <c r="G88" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="I88" s="12"/>
       <c r="J88" s="12"/>
@@ -10006,26 +9971,26 @@
       <c r="M88" s="12"/>
       <c r="N88" s="12"/>
       <c r="O88" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P88" s="12"/>
       <c r="Q88" s="12"/>
       <c r="R88" s="12"/>
       <c r="S88" s="1" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="T88" s="1" t="s">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="U88" s="1" t="s">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="V88" s="12"/>
       <c r="W88" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="X88" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y88" s="12"/>
       <c r="Z88" s="12"/>
@@ -10033,10 +9998,12 @@
       <c r="AB88" s="12"/>
       <c r="AC88" s="12"/>
       <c r="AD88" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AE88" s="12"/>
-      <c r="AF88" s="12"/>
+      <c r="AF88" s="20" t="s">
+        <v>218</v>
+      </c>
       <c r="AG88" s="12"/>
       <c r="AH88" s="12"/>
       <c r="AI88" s="12"/>
@@ -10075,10 +10042,10 @@
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
       <c r="G89" s="1" t="s">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I89" s="12"/>
       <c r="J89" s="12"/>
@@ -10087,26 +10054,26 @@
       <c r="M89" s="12"/>
       <c r="N89" s="12"/>
       <c r="O89" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P89" s="12"/>
       <c r="Q89" s="12"/>
       <c r="R89" s="12"/>
       <c r="S89" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>47</v>
+        <v>218</v>
       </c>
       <c r="U89" s="1" t="s">
-        <v>47</v>
+        <v>218</v>
       </c>
       <c r="V89" s="12"/>
       <c r="W89" s="1" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="X89" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y89" s="12"/>
       <c r="Z89" s="12"/>
@@ -10114,10 +10081,12 @@
       <c r="AB89" s="12"/>
       <c r="AC89" s="12"/>
       <c r="AD89" s="1" t="s">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="AE89" s="12"/>
-      <c r="AF89" s="12"/>
+      <c r="AF89" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="AG89" s="12"/>
       <c r="AH89" s="12"/>
       <c r="AI89" s="12"/>
@@ -10156,10 +10125,10 @@
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
       <c r="G90" s="1" t="s">
-        <v>41</v>
+        <v>218</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
@@ -10167,25 +10136,27 @@
       <c r="L90" s="12"/>
       <c r="M90" s="12"/>
       <c r="N90" s="12"/>
-      <c r="O90" s="12"/>
+      <c r="O90" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="P90" s="12"/>
       <c r="Q90" s="12"/>
       <c r="R90" s="12"/>
       <c r="S90" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="V90" s="12"/>
       <c r="W90" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X90" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y90" s="12"/>
       <c r="Z90" s="12"/>
@@ -10193,10 +10164,12 @@
       <c r="AB90" s="12"/>
       <c r="AC90" s="12"/>
       <c r="AD90" s="1" t="s">
-        <v>41</v>
+        <v>218</v>
       </c>
       <c r="AE90" s="12"/>
-      <c r="AF90" s="12"/>
+      <c r="AF90" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="AG90" s="12"/>
       <c r="AH90" s="12"/>
       <c r="AI90" s="12"/>
@@ -10235,10 +10208,10 @@
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
       <c r="G91" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I91" s="12"/>
       <c r="J91" s="12"/>
@@ -10251,29 +10224,33 @@
       <c r="Q91" s="12"/>
       <c r="R91" s="12"/>
       <c r="S91" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="V91" s="12"/>
       <c r="W91" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X91" s="12"/>
+        <v>8</v>
+      </c>
+      <c r="X91" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="Y91" s="12"/>
       <c r="Z91" s="12"/>
       <c r="AA91" s="12"/>
       <c r="AB91" s="12"/>
       <c r="AC91" s="12"/>
       <c r="AD91" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AE91" s="12"/>
-      <c r="AF91" s="12"/>
+      <c r="AF91" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="AG91" s="12"/>
       <c r="AH91" s="12"/>
       <c r="AI91" s="12"/>
@@ -10312,10 +10289,10 @@
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
       <c r="G92" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I92" s="12"/>
       <c r="J92" s="12"/>
@@ -10327,16 +10304,18 @@
       <c r="P92" s="12"/>
       <c r="Q92" s="12"/>
       <c r="R92" s="12"/>
-      <c r="S92" s="12"/>
+      <c r="S92" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="T92" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U92" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="U92" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="V92" s="12"/>
       <c r="W92" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X92" s="12"/>
       <c r="Y92" s="12"/>
@@ -10345,10 +10324,12 @@
       <c r="AB92" s="12"/>
       <c r="AC92" s="12"/>
       <c r="AD92" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AE92" s="12"/>
-      <c r="AF92" s="12"/>
+      <c r="AF92" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="AG92" s="12"/>
       <c r="AH92" s="12"/>
       <c r="AI92" s="12"/>
@@ -10387,10 +10368,10 @@
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
       <c r="G93" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I93" s="12"/>
       <c r="J93" s="12"/>
@@ -10404,14 +10385,14 @@
       <c r="R93" s="12"/>
       <c r="S93" s="12"/>
       <c r="T93" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U93" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="U93" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="V93" s="12"/>
       <c r="W93" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="X93" s="12"/>
       <c r="Y93" s="12"/>
@@ -10420,10 +10401,12 @@
       <c r="AB93" s="12"/>
       <c r="AC93" s="12"/>
       <c r="AD93" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AE93" s="12"/>
-      <c r="AF93" s="12"/>
+      <c r="AF93" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="AG93" s="12"/>
       <c r="AH93" s="12"/>
       <c r="AI93" s="12"/>
@@ -10462,10 +10445,10 @@
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
       <c r="G94" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I94" s="12"/>
       <c r="J94" s="12"/>
@@ -10479,14 +10462,14 @@
       <c r="R94" s="12"/>
       <c r="S94" s="12"/>
       <c r="T94" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U94" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="U94" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="V94" s="12"/>
       <c r="W94" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="X94" s="12"/>
       <c r="Y94" s="12"/>
@@ -10495,10 +10478,12 @@
       <c r="AB94" s="12"/>
       <c r="AC94" s="12"/>
       <c r="AD94" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AE94" s="12"/>
-      <c r="AF94" s="12"/>
+      <c r="AF94" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="AG94" s="12"/>
       <c r="AH94" s="12"/>
       <c r="AI94" s="12"/>
@@ -10537,10 +10522,10 @@
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
       <c r="G95" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I95" s="12"/>
       <c r="J95" s="12"/>
@@ -10554,14 +10539,14 @@
       <c r="R95" s="12"/>
       <c r="S95" s="12"/>
       <c r="T95" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U95" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="U95" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="V95" s="12"/>
       <c r="W95" s="1" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="X95" s="12"/>
       <c r="Y95" s="12"/>
@@ -10570,10 +10555,12 @@
       <c r="AB95" s="12"/>
       <c r="AC95" s="12"/>
       <c r="AD95" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AE95" s="12"/>
-      <c r="AF95" s="12"/>
+      <c r="AF95" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="AG95" s="12"/>
       <c r="AH95" s="12"/>
       <c r="AI95" s="12"/>
@@ -10612,9 +10599,11 @@
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
       <c r="G96" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H96" s="12"/>
+        <v>59</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="I96" s="12"/>
       <c r="J96" s="12"/>
       <c r="K96" s="12"/>
@@ -10627,14 +10616,14 @@
       <c r="R96" s="12"/>
       <c r="S96" s="12"/>
       <c r="T96" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U96" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="U96" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="V96" s="12"/>
       <c r="W96" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X96" s="12"/>
       <c r="Y96" s="12"/>
@@ -10643,10 +10632,12 @@
       <c r="AB96" s="12"/>
       <c r="AC96" s="12"/>
       <c r="AD96" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AE96" s="12"/>
-      <c r="AF96" s="12"/>
+      <c r="AF96" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="AG96" s="12"/>
       <c r="AH96" s="12"/>
       <c r="AI96" s="12"/>
@@ -10685,7 +10676,7 @@
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
       <c r="G97" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
@@ -10700,13 +10691,15 @@
       <c r="R97" s="12"/>
       <c r="S97" s="12"/>
       <c r="T97" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U97" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U97" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="V97" s="12"/>
-      <c r="W97" s="12"/>
+      <c r="W97" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="X97" s="12"/>
       <c r="Y97" s="12"/>
       <c r="Z97" s="12"/>
@@ -10714,10 +10707,12 @@
       <c r="AB97" s="12"/>
       <c r="AC97" s="12"/>
       <c r="AD97" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AE97" s="12"/>
-      <c r="AF97" s="12"/>
+      <c r="AF97" s="20" t="s">
+        <v>8</v>
+      </c>
       <c r="AG97" s="12"/>
       <c r="AH97" s="12"/>
       <c r="AI97" s="12"/>
@@ -10756,7 +10751,7 @@
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
       <c r="G98" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H98" s="12"/>
       <c r="I98" s="12"/>
@@ -10771,10 +10766,10 @@
       <c r="R98" s="12"/>
       <c r="S98" s="12"/>
       <c r="T98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U98" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="U98" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="V98" s="12"/>
       <c r="W98" s="12"/>
@@ -10785,10 +10780,12 @@
       <c r="AB98" s="12"/>
       <c r="AC98" s="12"/>
       <c r="AD98" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AE98" s="12"/>
-      <c r="AF98" s="12"/>
+      <c r="AF98" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="AG98" s="12"/>
       <c r="AH98" s="12"/>
       <c r="AI98" s="12"/>
@@ -10827,7 +10824,7 @@
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
       <c r="G99" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
@@ -10842,10 +10839,10 @@
       <c r="R99" s="12"/>
       <c r="S99" s="12"/>
       <c r="T99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U99" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="U99" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="V99" s="12"/>
       <c r="W99" s="12"/>
@@ -10856,10 +10853,12 @@
       <c r="AB99" s="12"/>
       <c r="AC99" s="12"/>
       <c r="AD99" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE99" s="12"/>
-      <c r="AF99" s="12"/>
+      <c r="AF99" s="20" t="s">
+        <v>12</v>
+      </c>
       <c r="AG99" s="12"/>
       <c r="AH99" s="12"/>
       <c r="AI99" s="12"/>
@@ -10898,7 +10897,7 @@
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
       <c r="G100" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
@@ -10913,10 +10912,10 @@
       <c r="R100" s="12"/>
       <c r="S100" s="12"/>
       <c r="T100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U100" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="U100" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="V100" s="12"/>
       <c r="W100" s="12"/>
@@ -10927,10 +10926,12 @@
       <c r="AB100" s="12"/>
       <c r="AC100" s="12"/>
       <c r="AD100" s="1" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="AE100" s="12"/>
-      <c r="AF100" s="12"/>
+      <c r="AF100" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="AG100" s="12"/>
       <c r="AH100" s="12"/>
       <c r="AI100" s="12"/>
@@ -10969,7 +10970,7 @@
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
       <c r="G101" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H101" s="12"/>
       <c r="I101" s="12"/>
@@ -10984,10 +10985,10 @@
       <c r="R101" s="12"/>
       <c r="S101" s="12"/>
       <c r="T101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U101" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="U101" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="V101" s="12"/>
       <c r="W101" s="12"/>
@@ -10998,10 +10999,12 @@
       <c r="AB101" s="12"/>
       <c r="AC101" s="12"/>
       <c r="AD101" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE101" s="12"/>
-      <c r="AF101" s="12"/>
+      <c r="AF101" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="AG101" s="12"/>
       <c r="AH101" s="12"/>
       <c r="AI101" s="12"/>
@@ -11040,7 +11043,7 @@
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
       <c r="G102" s="1" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
@@ -11055,9 +11058,11 @@
       <c r="R102" s="12"/>
       <c r="S102" s="12"/>
       <c r="T102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U102" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U102" s="12"/>
       <c r="V102" s="12"/>
       <c r="W102" s="12"/>
       <c r="X102" s="12"/>
@@ -11067,10 +11072,12 @@
       <c r="AB102" s="12"/>
       <c r="AC102" s="12"/>
       <c r="AD102" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE102" s="12"/>
-      <c r="AF102" s="12"/>
+      <c r="AF102" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="AG102" s="12"/>
       <c r="AH102" s="12"/>
       <c r="AI102" s="12"/>
@@ -11109,7 +11116,7 @@
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
       <c r="G103" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
@@ -11124,7 +11131,7 @@
       <c r="R103" s="12"/>
       <c r="S103" s="12"/>
       <c r="T103" s="1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="U103" s="12"/>
       <c r="V103" s="12"/>
@@ -11136,10 +11143,12 @@
       <c r="AB103" s="12"/>
       <c r="AC103" s="12"/>
       <c r="AD103" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE103" s="12"/>
-      <c r="AF103" s="12"/>
+      <c r="AF103" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="AG103" s="12"/>
       <c r="AH103" s="12"/>
       <c r="AI103" s="12"/>
@@ -11178,7 +11187,7 @@
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
       <c r="G104" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
@@ -11193,7 +11202,7 @@
       <c r="R104" s="12"/>
       <c r="S104" s="12"/>
       <c r="T104" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="U104" s="12"/>
       <c r="V104" s="12"/>
@@ -11205,10 +11214,12 @@
       <c r="AB104" s="12"/>
       <c r="AC104" s="12"/>
       <c r="AD104" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE104" s="12"/>
-      <c r="AF104" s="12"/>
+      <c r="AF104" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="AG104" s="12"/>
       <c r="AH104" s="12"/>
       <c r="AI104" s="12"/>
@@ -11246,7 +11257,9 @@
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
+      <c r="G105" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
       <c r="J105" s="12"/>
@@ -11260,7 +11273,7 @@
       <c r="R105" s="12"/>
       <c r="S105" s="12"/>
       <c r="T105" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="U105" s="12"/>
       <c r="V105" s="12"/>
@@ -11272,10 +11285,12 @@
       <c r="AB105" s="12"/>
       <c r="AC105" s="12"/>
       <c r="AD105" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE105" s="12"/>
-      <c r="AF105" s="12"/>
+      <c r="AF105" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="AG105" s="12"/>
       <c r="AH105" s="12"/>
       <c r="AI105" s="12"/>
@@ -11327,7 +11342,7 @@
       <c r="R106" s="12"/>
       <c r="S106" s="12"/>
       <c r="T106" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="U106" s="12"/>
       <c r="V106" s="12"/>
@@ -11339,10 +11354,12 @@
       <c r="AB106" s="12"/>
       <c r="AC106" s="12"/>
       <c r="AD106" s="1" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="AE106" s="12"/>
-      <c r="AF106" s="12"/>
+      <c r="AF106" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="AG106" s="12"/>
       <c r="AH106" s="12"/>
       <c r="AI106" s="12"/>
@@ -11394,7 +11411,7 @@
       <c r="R107" s="12"/>
       <c r="S107" s="12"/>
       <c r="T107" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U107" s="12"/>
       <c r="V107" s="12"/>
@@ -11406,7 +11423,7 @@
       <c r="AB107" s="12"/>
       <c r="AC107" s="12"/>
       <c r="AD107" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AE107" s="12"/>
       <c r="AF107" s="12"/>
@@ -11461,7 +11478,7 @@
       <c r="R108" s="12"/>
       <c r="S108" s="12"/>
       <c r="T108" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U108" s="12"/>
       <c r="V108" s="12"/>
@@ -11473,7 +11490,7 @@
       <c r="AB108" s="12"/>
       <c r="AC108" s="12"/>
       <c r="AD108" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AE108" s="12"/>
       <c r="AF108" s="12"/>
@@ -11528,7 +11545,7 @@
       <c r="R109" s="12"/>
       <c r="S109" s="12"/>
       <c r="T109" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="U109" s="12"/>
       <c r="V109" s="12"/>
@@ -11540,7 +11557,7 @@
       <c r="AB109" s="12"/>
       <c r="AC109" s="12"/>
       <c r="AD109" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AE109" s="12"/>
       <c r="AF109" s="12"/>
@@ -11595,7 +11612,7 @@
       <c r="R110" s="12"/>
       <c r="S110" s="12"/>
       <c r="T110" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U110" s="12"/>
       <c r="V110" s="12"/>
@@ -11607,7 +11624,7 @@
       <c r="AB110" s="12"/>
       <c r="AC110" s="12"/>
       <c r="AD110" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AE110" s="12"/>
       <c r="AF110" s="12"/>
@@ -11662,7 +11679,7 @@
       <c r="R111" s="12"/>
       <c r="S111" s="12"/>
       <c r="T111" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U111" s="12"/>
       <c r="V111" s="12"/>
@@ -11674,7 +11691,7 @@
       <c r="AB111" s="12"/>
       <c r="AC111" s="12"/>
       <c r="AD111" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE111" s="12"/>
       <c r="AF111" s="12"/>
@@ -11729,7 +11746,7 @@
       <c r="R112" s="12"/>
       <c r="S112" s="12"/>
       <c r="T112" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U112" s="12"/>
       <c r="V112" s="12"/>
@@ -11741,7 +11758,7 @@
       <c r="AB112" s="12"/>
       <c r="AC112" s="12"/>
       <c r="AD112" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE112" s="12"/>
       <c r="AF112" s="12"/>
@@ -11796,7 +11813,7 @@
       <c r="R113" s="12"/>
       <c r="S113" s="12"/>
       <c r="T113" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U113" s="12"/>
       <c r="V113" s="12"/>
@@ -11808,7 +11825,7 @@
       <c r="AB113" s="12"/>
       <c r="AC113" s="12"/>
       <c r="AD113" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AE113" s="12"/>
       <c r="AF113" s="12"/>
@@ -11862,7 +11879,9 @@
       <c r="Q114" s="12"/>
       <c r="R114" s="12"/>
       <c r="S114" s="12"/>
-      <c r="T114" s="12"/>
+      <c r="T114" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="U114" s="12"/>
       <c r="V114" s="12"/>
       <c r="W114" s="12"/>
@@ -11873,7 +11892,7 @@
       <c r="AB114" s="12"/>
       <c r="AC114" s="12"/>
       <c r="AD114" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AE114" s="12"/>
       <c r="AF114" s="12"/>
@@ -11938,7 +11957,7 @@
       <c r="AB115" s="12"/>
       <c r="AC115" s="12"/>
       <c r="AD115" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AE115" s="12"/>
       <c r="AF115" s="12"/>
@@ -12003,7 +12022,7 @@
       <c r="AB116" s="12"/>
       <c r="AC116" s="12"/>
       <c r="AD116" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AE116" s="12"/>
       <c r="AF116" s="12"/>
@@ -12068,7 +12087,7 @@
       <c r="AB117" s="12"/>
       <c r="AC117" s="12"/>
       <c r="AD117" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AE117" s="12"/>
       <c r="AF117" s="12"/>
@@ -12133,7 +12152,7 @@
       <c r="AB118" s="12"/>
       <c r="AC118" s="12"/>
       <c r="AD118" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="AE118" s="12"/>
       <c r="AF118" s="12"/>
@@ -12198,7 +12217,7 @@
       <c r="AB119" s="12"/>
       <c r="AC119" s="12"/>
       <c r="AD119" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="AE119" s="12"/>
       <c r="AF119" s="12"/>
@@ -12263,7 +12282,7 @@
       <c r="AB120" s="12"/>
       <c r="AC120" s="12"/>
       <c r="AD120" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE120" s="12"/>
       <c r="AF120" s="12"/>
@@ -12328,7 +12347,7 @@
       <c r="AB121" s="12"/>
       <c r="AC121" s="12"/>
       <c r="AD121" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE121" s="12"/>
       <c r="AF121" s="12"/>
@@ -12393,7 +12412,7 @@
       <c r="AB122" s="12"/>
       <c r="AC122" s="12"/>
       <c r="AD122" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE122" s="12"/>
       <c r="AF122" s="12"/>
@@ -12458,7 +12477,7 @@
       <c r="AB123" s="12"/>
       <c r="AC123" s="12"/>
       <c r="AD123" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE123" s="12"/>
       <c r="AF123" s="12"/>
@@ -12523,7 +12542,7 @@
       <c r="AB124" s="12"/>
       <c r="AC124" s="12"/>
       <c r="AD124" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AE124" s="12"/>
       <c r="AF124" s="12"/>
@@ -12588,7 +12607,7 @@
       <c r="AB125" s="12"/>
       <c r="AC125" s="12"/>
       <c r="AD125" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AE125" s="12"/>
       <c r="AF125" s="12"/>
@@ -12653,7 +12672,7 @@
       <c r="AB126" s="12"/>
       <c r="AC126" s="12"/>
       <c r="AD126" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AE126" s="12"/>
       <c r="AF126" s="12"/>
@@ -12718,7 +12737,7 @@
       <c r="AB127" s="12"/>
       <c r="AC127" s="12"/>
       <c r="AD127" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AE127" s="12"/>
       <c r="AF127" s="12"/>
@@ -12783,7 +12802,7 @@
       <c r="AB128" s="12"/>
       <c r="AC128" s="12"/>
       <c r="AD128" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE128" s="12"/>
       <c r="AF128" s="12"/>
@@ -12848,7 +12867,7 @@
       <c r="AB129" s="12"/>
       <c r="AC129" s="12"/>
       <c r="AD129" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AE129" s="12"/>
       <c r="AF129" s="12"/>
@@ -12913,7 +12932,7 @@
       <c r="AB130" s="12"/>
       <c r="AC130" s="12"/>
       <c r="AD130" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AE130" s="12"/>
       <c r="AF130" s="12"/>
@@ -12977,7 +12996,9 @@
       <c r="AA131" s="12"/>
       <c r="AB131" s="12"/>
       <c r="AC131" s="12"/>
-      <c r="AD131" s="12"/>
+      <c r="AD131" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="AE131" s="12"/>
       <c r="AF131" s="12"/>
       <c r="AG131" s="12"/>
@@ -13704,63 +13725,63 @@
       <c r="BI142" s="14"/>
     </row>
     <row r="143" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A143" s="19"/>
-      <c r="B143" s="19"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
-      <c r="H143" s="14"/>
-      <c r="I143" s="14"/>
-      <c r="J143" s="14"/>
-      <c r="K143" s="14"/>
-      <c r="L143" s="14"/>
-      <c r="M143" s="14"/>
-      <c r="N143" s="14"/>
-      <c r="O143" s="14"/>
-      <c r="P143" s="14"/>
-      <c r="Q143" s="14"/>
-      <c r="R143" s="14"/>
-      <c r="S143" s="14"/>
-      <c r="T143" s="14"/>
-      <c r="U143" s="14"/>
-      <c r="V143" s="14"/>
-      <c r="W143" s="14"/>
-      <c r="X143" s="14"/>
-      <c r="Y143" s="14"/>
-      <c r="Z143" s="14"/>
-      <c r="AA143" s="14"/>
-      <c r="AB143" s="14"/>
-      <c r="AC143" s="14"/>
-      <c r="AD143" s="14"/>
-      <c r="AE143" s="14"/>
-      <c r="AF143" s="14"/>
-      <c r="AG143" s="14"/>
-      <c r="AH143" s="14"/>
-      <c r="AI143" s="14"/>
-      <c r="AJ143" s="14"/>
-      <c r="AK143" s="14"/>
-      <c r="AL143" s="14"/>
-      <c r="AM143" s="14"/>
-      <c r="AN143" s="14"/>
-      <c r="AO143" s="14"/>
-      <c r="AP143" s="14"/>
-      <c r="AQ143" s="14"/>
-      <c r="AR143" s="14"/>
-      <c r="AS143" s="14"/>
-      <c r="AT143" s="14"/>
-      <c r="AU143" s="14"/>
-      <c r="AV143" s="14"/>
-      <c r="AW143" s="14"/>
-      <c r="AX143" s="14"/>
-      <c r="AY143" s="14"/>
-      <c r="AZ143" s="14"/>
-      <c r="BA143" s="14"/>
-      <c r="BB143" s="14"/>
-      <c r="BC143" s="14"/>
-      <c r="BD143" s="14"/>
-      <c r="BE143" s="14"/>
+      <c r="A143" s="18"/>
+      <c r="B143" s="18"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="12"/>
+      <c r="L143" s="12"/>
+      <c r="M143" s="12"/>
+      <c r="N143" s="12"/>
+      <c r="O143" s="12"/>
+      <c r="P143" s="12"/>
+      <c r="Q143" s="12"/>
+      <c r="R143" s="12"/>
+      <c r="S143" s="12"/>
+      <c r="T143" s="12"/>
+      <c r="U143" s="12"/>
+      <c r="V143" s="12"/>
+      <c r="W143" s="12"/>
+      <c r="X143" s="12"/>
+      <c r="Y143" s="12"/>
+      <c r="Z143" s="12"/>
+      <c r="AA143" s="12"/>
+      <c r="AB143" s="12"/>
+      <c r="AC143" s="12"/>
+      <c r="AD143" s="12"/>
+      <c r="AE143" s="12"/>
+      <c r="AF143" s="12"/>
+      <c r="AG143" s="12"/>
+      <c r="AH143" s="12"/>
+      <c r="AI143" s="12"/>
+      <c r="AJ143" s="12"/>
+      <c r="AK143" s="12"/>
+      <c r="AL143" s="12"/>
+      <c r="AM143" s="12"/>
+      <c r="AN143" s="12"/>
+      <c r="AO143" s="12"/>
+      <c r="AP143" s="12"/>
+      <c r="AQ143" s="12"/>
+      <c r="AR143" s="12"/>
+      <c r="AS143" s="12"/>
+      <c r="AT143" s="12"/>
+      <c r="AU143" s="12"/>
+      <c r="AV143" s="12"/>
+      <c r="AW143" s="12"/>
+      <c r="AX143" s="12"/>
+      <c r="AY143" s="12"/>
+      <c r="AZ143" s="12"/>
+      <c r="BA143" s="12"/>
+      <c r="BB143" s="12"/>
+      <c r="BC143" s="12"/>
+      <c r="BD143" s="12"/>
+      <c r="BE143" s="12"/>
       <c r="BF143" s="14"/>
       <c r="BG143" s="14"/>
       <c r="BH143" s="14"/>
@@ -14459,11 +14480,74 @@
       <c r="BH154" s="14"/>
       <c r="BI154" s="14"/>
     </row>
+    <row r="155" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A155" s="19"/>
+      <c r="B155" s="19"/>
+      <c r="C155" s="14"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="14"/>
+      <c r="F155" s="14"/>
+      <c r="G155" s="14"/>
+      <c r="H155" s="14"/>
+      <c r="I155" s="14"/>
+      <c r="J155" s="14"/>
+      <c r="K155" s="14"/>
+      <c r="L155" s="14"/>
+      <c r="M155" s="14"/>
+      <c r="N155" s="14"/>
+      <c r="O155" s="14"/>
+      <c r="P155" s="14"/>
+      <c r="Q155" s="14"/>
+      <c r="R155" s="14"/>
+      <c r="S155" s="14"/>
+      <c r="T155" s="14"/>
+      <c r="U155" s="14"/>
+      <c r="V155" s="14"/>
+      <c r="W155" s="14"/>
+      <c r="X155" s="14"/>
+      <c r="Y155" s="14"/>
+      <c r="Z155" s="14"/>
+      <c r="AA155" s="14"/>
+      <c r="AB155" s="14"/>
+      <c r="AC155" s="14"/>
+      <c r="AD155" s="14"/>
+      <c r="AE155" s="14"/>
+      <c r="AF155" s="14"/>
+      <c r="AG155" s="14"/>
+      <c r="AH155" s="14"/>
+      <c r="AI155" s="14"/>
+      <c r="AJ155" s="14"/>
+      <c r="AK155" s="14"/>
+      <c r="AL155" s="14"/>
+      <c r="AM155" s="14"/>
+      <c r="AN155" s="14"/>
+      <c r="AO155" s="14"/>
+      <c r="AP155" s="14"/>
+      <c r="AQ155" s="14"/>
+      <c r="AR155" s="14"/>
+      <c r="AS155" s="14"/>
+      <c r="AT155" s="14"/>
+      <c r="AU155" s="14"/>
+      <c r="AV155" s="14"/>
+      <c r="AW155" s="14"/>
+      <c r="AX155" s="14"/>
+      <c r="AY155" s="14"/>
+      <c r="AZ155" s="14"/>
+      <c r="BA155" s="14"/>
+      <c r="BB155" s="14"/>
+      <c r="BC155" s="14"/>
+      <c r="BD155" s="14"/>
+      <c r="BE155" s="14"/>
+      <c r="BF155" s="14"/>
+      <c r="BG155" s="14"/>
+      <c r="BH155" s="14"/>
+      <c r="BI155" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="D5:G5"/>
-    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="D4:H4"/>

--- a/Report 22.6 成型多周期 CPU/59 全部指令集完全版分析.xlsx
+++ b/Report 22.6 成型多周期 CPU/59 全部指令集完全版分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VIVADO_project\Disjunctive.N.F\Report 22.6 成型多周期 CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EA9713-A34F-461F-A37B-E8B615A62202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B4DF7A-80F3-4C86-83EE-9CAA17719DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="295">
   <si>
     <t>opcode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1393,13 +1393,10 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1408,16 +1405,19 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1702,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AP6" sqref="AP6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q71" sqref="Q71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1825,10 +1825,10 @@
       </c>
     </row>
     <row r="3" spans="2:63" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1873,19 +1873,19 @@
       </c>
     </row>
     <row r="4" spans="2:63" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
       <c r="N4" s="13" t="s">
         <v>207</v>
       </c>
@@ -1900,15 +1900,15 @@
       </c>
     </row>
     <row r="5" spans="2:63" x14ac:dyDescent="0.25">
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
       <c r="N5" s="14" t="s">
         <v>209</v>
       </c>
@@ -1917,14 +1917,14 @@
       </c>
     </row>
     <row r="6" spans="2:63" x14ac:dyDescent="0.25">
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1936,8 +1936,8 @@
       </c>
     </row>
     <row r="7" spans="2:63" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="1" t="s">
         <v>163</v>
       </c>
@@ -2079,57 +2079,57 @@
       <c r="BK15" s="14"/>
     </row>
     <row r="16" spans="2:63" x14ac:dyDescent="0.25">
-      <c r="I16" s="24">
+      <c r="I16" s="26">
         <v>2</v>
       </c>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24">
+      <c r="J16" s="26"/>
+      <c r="K16" s="26">
         <v>3</v>
       </c>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24">
+      <c r="L16" s="26"/>
+      <c r="M16" s="26">
         <v>13</v>
       </c>
-      <c r="N16" s="24"/>
+      <c r="N16" s="26"/>
       <c r="O16" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="P16" s="24">
+      <c r="P16" s="26">
         <v>4</v>
       </c>
-      <c r="Q16" s="24"/>
+      <c r="Q16" s="26"/>
       <c r="R16" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="S16" s="24">
+      <c r="S16" s="26">
         <v>3</v>
       </c>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24">
+      <c r="T16" s="26"/>
+      <c r="U16" s="26">
         <v>2</v>
       </c>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24">
+      <c r="V16" s="26"/>
+      <c r="W16" s="26">
         <v>2</v>
       </c>
-      <c r="X16" s="24"/>
+      <c r="X16" s="26"/>
       <c r="Y16" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="Z16" s="24">
+      <c r="Z16" s="26">
         <v>2</v>
       </c>
-      <c r="AA16" s="24"/>
+      <c r="AA16" s="26"/>
       <c r="AB16" s="4" t="s">
         <v>290</v>
       </c>
       <c r="AC16" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AD16" s="24">
+      <c r="AD16" s="26">
         <v>4</v>
       </c>
-      <c r="AE16" s="24"/>
+      <c r="AE16" s="26"/>
       <c r="AF16" s="4" t="s">
         <v>290</v>
       </c>
@@ -2170,14 +2170,14 @@
     <row r="17" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
       <c r="I17" s="27" t="s">
         <v>186</v>
       </c>
@@ -2200,35 +2200,35 @@
       <c r="R17" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="S17" s="25" t="s">
+      <c r="S17" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="T17" s="26"/>
-      <c r="U17" s="25" t="s">
+      <c r="T17" s="25"/>
+      <c r="U17" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="V17" s="26"/>
-      <c r="W17" s="22" t="s">
+      <c r="V17" s="25"/>
+      <c r="W17" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="X17" s="23"/>
+      <c r="X17" s="30"/>
       <c r="Y17" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="Z17" s="22" t="s">
+      <c r="Z17" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="AA17" s="23"/>
+      <c r="AA17" s="30"/>
       <c r="AB17" s="16" t="s">
         <v>244</v>
       </c>
       <c r="AC17" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="AD17" s="25" t="s">
+      <c r="AD17" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="AE17" s="26"/>
+      <c r="AE17" s="25"/>
       <c r="AF17" s="20" t="s">
         <v>251</v>
       </c>
@@ -8280,9 +8280,11 @@
       <c r="O66" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="P66" s="10"/>
+      <c r="P66" s="10" t="s">
+        <v>225</v>
+      </c>
       <c r="Q66" s="2" t="s">
-        <v>107</v>
+        <v>270</v>
       </c>
       <c r="R66" s="6" t="s">
         <v>106</v>
@@ -8407,9 +8409,11 @@
       <c r="O67" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="P67" s="10"/>
+      <c r="P67" s="10" t="s">
+        <v>225</v>
+      </c>
       <c r="Q67" s="2" t="s">
-        <v>107</v>
+        <v>270</v>
       </c>
       <c r="R67" s="6" t="s">
         <v>106</v>
@@ -8534,9 +8538,11 @@
       <c r="O68" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P68" s="10"/>
+      <c r="P68" s="10" t="s">
+        <v>225</v>
+      </c>
       <c r="Q68" s="2" t="s">
-        <v>107</v>
+        <v>269</v>
       </c>
       <c r="R68" s="6" t="s">
         <v>106</v>
@@ -8661,9 +8667,11 @@
       <c r="O69" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P69" s="10"/>
+      <c r="P69" s="10" t="s">
+        <v>225</v>
+      </c>
       <c r="Q69" s="2" t="s">
-        <v>107</v>
+        <v>269</v>
       </c>
       <c r="R69" s="6" t="s">
         <v>106</v>
@@ -8788,9 +8796,11 @@
       <c r="O70" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P70" s="10"/>
+      <c r="P70" s="10" t="s">
+        <v>225</v>
+      </c>
       <c r="Q70" s="2" t="s">
-        <v>107</v>
+        <v>269</v>
       </c>
       <c r="R70" s="6" t="s">
         <v>106</v>
@@ -8915,9 +8925,11 @@
       <c r="O71" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P71" s="10"/>
+      <c r="P71" s="10" t="s">
+        <v>225</v>
+      </c>
       <c r="Q71" s="2" t="s">
-        <v>107</v>
+        <v>269</v>
       </c>
       <c r="R71" s="6" t="s">
         <v>204</v>
@@ -9038,9 +9050,11 @@
       <c r="O72" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P72" s="10"/>
+      <c r="P72" s="10" t="s">
+        <v>225</v>
+      </c>
       <c r="Q72" s="2" t="s">
-        <v>107</v>
+        <v>269</v>
       </c>
       <c r="R72" s="6" t="s">
         <v>204</v>
@@ -9161,9 +9175,11 @@
       <c r="O73" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P73" s="10"/>
+      <c r="P73" s="10" t="s">
+        <v>225</v>
+      </c>
       <c r="Q73" s="2" t="s">
-        <v>107</v>
+        <v>269</v>
       </c>
       <c r="R73" s="6" t="s">
         <v>204</v>
@@ -10157,12 +10173,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AD16:AE16"/>
     <mergeCell ref="U17:V17"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="K16:L16"/>
@@ -10175,12 +10191,12 @@
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="S17:T17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
